--- a/config/excel/hero.xlsx
+++ b/config/excel/hero.xlsx
@@ -19,15 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate</t>
   </si>
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>#测试说明</t>
   </si>
   <si>
     <t>名字</t>
@@ -216,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -224,11 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -238,9 +231,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1439,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1450,14 +1440,13 @@
     <col min="1" max="1" width="61.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="21.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="21.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1467,9 +1456,8 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -1477,15 +1465,16 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1493,13 +1482,10 @@
         <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
@@ -1515,90 +1501,83 @@
         <v>4</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.65" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="14.65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="D6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12">
         <v>2</v>
       </c>
-      <c r="G6" s="12">
+      <c r="F6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>18</v>
+      <c r="G6" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.65" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="14.65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9">
         <v>3</v>
       </c>
-      <c r="G7" s="8">
+      <c r="F7" s="7">
         <v>0</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>19</v>
+      <c r="G7" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.65" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="14.65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>3</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="D8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="9">
         <v>4</v>
       </c>
-      <c r="G8" s="8">
+      <c r="F8" s="7">
         <v>2</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>20</v>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/hero.xlsx
+++ b/config/excel/hero.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
-  <si>
-    <t>AppType.ClientH |  AppType.ClientM | AppType.Gate</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -64,35 +61,47 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>属性列表</t>
+    <t>default</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AttList</t>
+    <t>-1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int[]</t>
+    <t>0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3</t>
+    <t>行列头两行不会被读取</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0,7,8</t>
+    <t>默认英雄名</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>22,993,17,31</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>导出字段描述</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出字段名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出字段类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出字段默认值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -119,6 +128,27 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Helvetica Neue"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -140,7 +170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -177,19 +207,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -216,11 +233,9 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -230,15 +245,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1429,155 +1446,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="61.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="21.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="16.149999999999999" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.149999999999999" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.149999999999999" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.149999999999999" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+    <row r="5" spans="1:6" ht="16.149999999999999" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+    <row r="6" spans="1:6" ht="16.149999999999999" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
+    <row r="7" spans="1:6" ht="14.65" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="8">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.65" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.65" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7">
         <v>4</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="F9" s="5">
         <v>2</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="9">
-        <v>3</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="7">
-        <v>3</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="9">
-        <v>4</v>
-      </c>
-      <c r="F8" s="7">
-        <v>2</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/hero.xlsx
+++ b/config/excel/hero.xlsx
@@ -1,25 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\go\src\github.com\east-eden\server\config\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21885" windowHeight="10020"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="HeroProto" sheetId="1" r:id="rId1"/>
+    <sheet name="HeroProto" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+  <si>
+    <t>行列头两行不会被读取</t>
+  </si>
+  <si>
+    <t>导出字段名</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>AttID</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>导出字段描述</t>
+  </si>
   <si>
     <t>id</t>
   </si>
@@ -33,13 +46,7 @@
     <t>品质</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>AttID</t>
-  </si>
-  <si>
-    <t>Quality</t>
+    <t>客户端导出字段类型</t>
   </si>
   <si>
     <t>int</t>
@@ -48,6 +55,21 @@
     <t>string</t>
   </si>
   <si>
+    <t>服务器导出字段类型</t>
+  </si>
+  <si>
+    <t>导出字段默认值</t>
+  </si>
+  <si>
+    <t>默认英雄名</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>梅林</t>
   </si>
   <si>
@@ -55,99 +77,41 @@
   </si>
   <si>
     <t>洛基</t>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>行列头两行不会被读取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认英雄名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出字段描述</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出字段名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出字段类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出字段默认值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
+      <name val="SimSun"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="SimSun"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
+      <b val="1"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Helvetica Neue"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -170,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -200,6 +164,17 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="10"/>
       </top>
@@ -214,6 +189,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="10"/>
       </left>
@@ -221,6 +225,43 @@
         <color indexed="10"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -228,121 +269,98 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff92d050"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office 主题">
       <a:dk1>
@@ -468,7 +486,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -477,7 +495,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -486,9 +504,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -560,7 +578,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -568,7 +586,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -587,19 +605,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -617,7 +635,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -643,7 +661,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -669,7 +687,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -695,7 +713,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -721,7 +739,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -747,7 +765,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -773,7 +791,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -799,7 +817,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -825,7 +843,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -838,15 +856,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -861,15 +873,15 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -888,7 +900,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -914,7 +926,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -940,7 +952,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -966,7 +978,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -992,7 +1004,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1018,7 +1030,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1044,7 +1056,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1070,7 +1082,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1096,7 +1108,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1122,7 +1134,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1135,15 +1147,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1157,7 +1163,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1176,19 +1182,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1206,7 +1212,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1232,7 +1238,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1258,7 +1264,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1284,7 +1290,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1310,7 +1316,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1336,7 +1342,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1362,7 +1368,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1388,7 +1394,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1414,7 +1420,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1427,180 +1433,190 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="13.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3516" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.149999999999999" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" ht="16.15" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" ht="16.15" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" ht="16.15" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s" s="6">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="16.15" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="16.15" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" ht="16.15" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="16.15" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="E7" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="7">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="16.149999999999999" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+    <row r="8" ht="14.65" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="16.149999999999999" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
+    <row r="9" ht="14.65" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="13">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="E9" s="15">
+        <v>3</v>
+      </c>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" ht="14.65" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="13">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s" s="14">
+        <v>21</v>
+      </c>
+      <c r="E10" s="15">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>6</v>
+      <c r="F10" s="13">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.149999999999999" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.149999999999999" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.149999999999999" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.65" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.65" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="7">
-        <v>3</v>
-      </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.65" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="5">
-        <v>3</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="7">
-        <v>4</v>
-      </c>
-      <c r="F9" s="5">
-        <v>2</v>
-      </c>
+    <row r="11" ht="14" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/hero.xlsx
+++ b/config/excel/hero.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>服务器导出字段类型</t>
+  </si>
+  <si>
+    <t>int32</t>
   </si>
   <si>
     <t>导出字段默认值</t>
@@ -1534,32 +1537,32 @@
         <v>14</v>
       </c>
       <c r="C6" t="s" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s" s="6">
         <v>13</v>
       </c>
       <c r="E6" t="s" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" ht="16.15" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" t="s" s="9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" t="s" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" ht="14.65" customHeight="1">
@@ -1569,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="10">
@@ -1583,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="15">
         <v>3</v>
@@ -1597,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s" s="14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="15">
         <v>4</v>

--- a/config/excel/hero.xlsx
+++ b/config/excel/hero.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -59,18 +59,6 @@
   </si>
   <si>
     <t>int32</t>
-  </si>
-  <si>
-    <t>导出字段默认值</t>
-  </si>
-  <si>
-    <t>默认英雄名</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>梅林</t>
@@ -1448,7 +1436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1533,7 +1521,7 @@
     </row>
     <row r="6" ht="16.15" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" t="s" s="8">
+      <c r="B6" t="s" s="9">
         <v>14</v>
       </c>
       <c r="C6" t="s" s="6">
@@ -1549,73 +1537,57 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="16.15" customHeight="1">
+    <row r="7" ht="14.65" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" t="s" s="9">
+      <c r="B7" s="3"/>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="11">
         <v>16</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s" s="7">
-        <v>19</v>
+      <c r="E7" s="12"/>
+      <c r="F7" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="14.65" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="10">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="11">
-        <v>20</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="14">
+        <v>17</v>
+      </c>
+      <c r="E8" s="15">
+        <v>3</v>
+      </c>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" ht="14.65" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="13">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s" s="14">
+        <v>18</v>
+      </c>
+      <c r="E9" s="15">
+        <v>4</v>
+      </c>
+      <c r="F9" s="13">
         <v>2</v>
       </c>
-      <c r="D9" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="E9" s="15">
-        <v>3</v>
-      </c>
-      <c r="F9" s="16"/>
     </row>
-    <row r="10" ht="14.65" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="13">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="E10" s="15">
-        <v>4</v>
-      </c>
-      <c r="F10" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" ht="14" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
+    <row r="10" ht="14" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/excel/hero.xlsx
+++ b/config/excel/hero.xlsx
@@ -5,69 +5,94 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="HeroProto" sheetId="1" r:id="rId4"/>
+    <sheet name="Hero" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
   <si>
+    <t>英雄id</t>
+  </si>
+  <si>
+    <t>0:SR +1:SSR</t>
+  </si>
+  <si>
+    <t>0:自然 +1:艺术 +2:文明 +3:破灭</t>
+  </si>
+  <si>
     <t>导出字段名</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>AttID</t>
-  </si>
-  <si>
-    <t>Quality</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>attId</t>
+  </si>
+  <si>
+    <t>chipCompose</t>
+  </si>
+  <si>
+    <t>chipTransform</t>
   </si>
   <si>
     <t>导出字段描述</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>名字</t>
+    <t>英雄名字</t>
+  </si>
+  <si>
+    <t>品质</t>
+  </si>
+  <si>
+    <t>种族</t>
   </si>
   <si>
     <t>属性id</t>
   </si>
   <si>
-    <t>品质</t>
-  </si>
-  <si>
-    <t>客户端导出字段类型</t>
-  </si>
-  <si>
-    <t>int</t>
+    <t>合成卡牌所需碎片</t>
+  </si>
+  <si>
+    <t>重复获得卡牌转化碎片数</t>
+  </si>
+  <si>
+    <t>字段控制</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>导出字段类型</t>
+  </si>
+  <si>
+    <t>int32</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>服务器导出字段类型</t>
-  </si>
-  <si>
-    <t>int32</t>
-  </si>
-  <si>
-    <t>梅林</t>
-  </si>
-  <si>
-    <t>砰砰博士</t>
-  </si>
-  <si>
-    <t>洛基</t>
+    <t>英雄1</t>
+  </si>
+  <si>
+    <t>英雄2</t>
   </si>
 </sst>
 </file>
@@ -77,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -92,11 +117,6 @@
       <sz val="14"/>
       <color indexed="8"/>
       <name val="SimSun"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
     </font>
     <font>
       <b val="1"/>
@@ -125,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -169,7 +189,9 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -192,7 +214,9 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -201,34 +225,10 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -264,7 +264,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -277,52 +277,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -351,9 +336,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 主题">
+    <a:clrScheme name="Office 主题​​">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -391,7 +376,7 @@
         <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 主题">
+    <a:fontScheme name="Office 主题​​">
       <a:majorFont>
         <a:latin typeface="Helvetica Neue"/>
         <a:ea typeface="Helvetica Neue"/>
@@ -403,7 +388,7 @@
         <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 主题">
+    <a:fmtScheme name="Office 主题​​">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1436,22 +1421,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3516" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.35156" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.8516" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.3516" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.15" customHeight="1">
+    <row r="1" ht="14" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1460,134 +1448,194 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
-    <row r="2" ht="16.15" customHeight="1">
+    <row r="2" ht="47" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
+      <c r="C2" t="s" s="4">
+        <v>1</v>
+      </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="E2" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" ht="16.15" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" t="s" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s" s="6">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s" s="7">
         <v>5</v>
+      </c>
+      <c r="D3" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s" s="8">
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="16.15" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" t="s" s="8">
-        <v>6</v>
+      <c r="B4" t="s" s="5">
+        <v>12</v>
       </c>
       <c r="C4" t="s" s="6">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s" s="7">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D4" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s" s="8">
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
+      <c r="B5" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" ht="16.15" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" t="s" s="9">
-        <v>14</v>
+      <c r="B6" t="s" s="5">
+        <v>21</v>
       </c>
       <c r="C6" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s" s="7">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D6" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s" s="8">
+        <v>22</v>
       </c>
     </row>
-    <row r="7" ht="14.65" customHeight="1">
+    <row r="7" ht="25" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>1</v>
       </c>
-      <c r="D7" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="10">
-        <v>1</v>
+      <c r="D7" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>50</v>
+      </c>
+      <c r="I7" s="9">
+        <v>30</v>
       </c>
     </row>
-    <row r="8" ht="14.65" customHeight="1">
+    <row r="8" ht="25" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" t="s" s="14">
-        <v>17</v>
-      </c>
-      <c r="E8" s="15">
-        <v>3</v>
-      </c>
-      <c r="F8" s="16"/>
+      <c r="D8" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11">
+        <v>80</v>
+      </c>
+      <c r="I8" s="11">
+        <v>50</v>
+      </c>
     </row>
-    <row r="9" ht="14.65" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="13">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s" s="14">
-        <v>18</v>
-      </c>
-      <c r="E9" s="15">
-        <v>4</v>
-      </c>
-      <c r="F9" s="13">
-        <v>2</v>
-      </c>
+    <row r="9" ht="16.15" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" ht="14" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/excel/hero.xlsx
+++ b/config/excel/hero.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Hero" sheetId="1" r:id="rId4"/>
+    <sheet name="Hero" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -89,43 +92,195 @@
     <t>string</t>
   </si>
   <si>
-    <t>英雄1</t>
-  </si>
-  <si>
-    <t>英雄2</t>
+    <t>demo版本防战</t>
+  </si>
+  <si>
+    <t>demo版本狂战</t>
+  </si>
+  <si>
+    <t>demo版本法师</t>
+  </si>
+  <si>
+    <t>demo版本治疗</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="SimSun"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,13 +290,199 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -155,42 +496,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -198,39 +513,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -238,105 +552,347 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff92d050"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="0092D050"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -462,7 +1018,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -471,7 +1027,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -480,7 +1036,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -554,13 +1110,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -580,8 +1135,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -610,8 +1164,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -636,8 +1189,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -662,8 +1214,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -688,8 +1239,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -714,8 +1264,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -740,8 +1289,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -766,8 +1314,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -792,8 +1339,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -818,8 +1364,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -832,9 +1377,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -849,13 +1400,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -875,8 +1425,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -901,8 +1450,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -927,8 +1475,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -953,8 +1500,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -979,8 +1525,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1005,8 +1550,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1031,8 +1575,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1057,8 +1600,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1083,8 +1625,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1109,8 +1650,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1123,9 +1663,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1136,8 +1682,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1157,8 +1701,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1187,8 +1730,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1213,8 +1755,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1239,8 +1780,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1265,8 +1805,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1291,8 +1830,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1317,8 +1855,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1343,8 +1880,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1369,8 +1905,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1395,8 +1930,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1409,9 +1943,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1420,27 +1960,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.35156" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.8516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.35" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="14" customHeight="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1452,194 +1995,222 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" ht="47" customHeight="1">
+    <row r="2" ht="47" customHeight="1" spans="1:9">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" t="s" s="4">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
-    <row r="3" ht="16.15" customHeight="1">
+    <row r="3" ht="16.15" customHeight="1" spans="1:9">
       <c r="A3" s="3"/>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="8">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="8">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="8">
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="8">
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="8">
+      <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1">
+    <row r="4" ht="16.15" customHeight="1" spans="1:9">
       <c r="A4" s="3"/>
-      <c r="B4" t="s" s="5">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s" s="6">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s" s="8">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s" s="8">
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s" s="8">
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s" s="8">
+      <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s" s="8">
+      <c r="I4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1">
+    <row r="5" ht="16.15" customHeight="1" spans="1:9">
       <c r="A5" s="3"/>
-      <c r="B5" t="s" s="5">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" t="s" s="7">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1">
+    <row r="6" ht="16.15" customHeight="1" spans="1:9">
       <c r="A6" s="3"/>
-      <c r="B6" t="s" s="5">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s" s="6">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s" s="8">
+      <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s" s="8">
+      <c r="F6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G6" t="s" s="8">
+      <c r="G6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H6" t="s" s="8">
+      <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I6" t="s" s="8">
+      <c r="I6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1">
+    <row r="7" ht="25" customHeight="1" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" t="s" s="10">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="5">
         <v>0</v>
       </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
         <v>50</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1">
+    <row r="8" ht="25" customHeight="1" spans="1:9">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="11">
+      <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" t="s" s="2">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>80</v>
+      </c>
+      <c r="I8" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" ht="16.15" customHeight="1" spans="1:9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3</v>
+      </c>
+      <c r="H9" s="5">
+        <v>50</v>
+      </c>
+      <c r="I9" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" ht="14" customHeight="1" spans="1:9">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="11">
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5">
         <v>80</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I10" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" ht="16.15" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" ht="14" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/hero.xlsx
+++ b/config/excel/hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -26,9 +26,11 @@
 1:SSR</t>
   </si>
   <si>
-    <t>0:自然 +    <t>0:自然
 1:艺术 +
 2:文明 +
 3:破灭</t>
   </si>
   <si>
@@ -50,10 +52,10 @@
     <t>attId</t>
   </si>
   <si>
-    <t>chipCompose</t>
-  </si>
-  <si>
-    <t>chipTransform</t>
+    <t>fragmentCompose</t>
+  </si>
+  <si>
+    <t>fragmentTransform</t>
   </si>
   <si>
     <t>导出字段描述</t>
@@ -110,9 +112,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -127,6 +129,134 @@
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -144,29 +274,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -174,111 +281,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -301,187 +303,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,23 +515,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,6 +541,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,243 +596,228 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -1147,7 +1152,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1713,7 +1718,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1960,24 +1965,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3461538461538" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3461538461538" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.35" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3461538461538" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.4615384615385" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
@@ -1995,7 +2000,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" ht="47" customHeight="1" spans="1:9">
+    <row r="2" ht="68" spans="1:9">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -2005,7 +2010,7 @@
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="2"/>
@@ -2209,7 +2214,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
